--- a/database/industries/felezat/faira/eps.xlsx
+++ b/database/industries/felezat/faira/eps.xlsx
@@ -34,28 +34,28 @@
     <t>capital_now</t>
   </si>
   <si>
+    <t>1399</t>
+  </si>
+  <si>
     <t>1401</t>
   </si>
   <si>
-    <t>1399</t>
+    <t>1400</t>
   </si>
   <si>
     <t>1398</t>
   </si>
   <si>
-    <t>1400</t>
-  </si>
-  <si>
-    <t>1401/10/11</t>
-  </si>
-  <si>
-    <t>1399/12/04</t>
-  </si>
-  <si>
-    <t>1399/04/31</t>
-  </si>
-  <si>
-    <t>1401/01/28</t>
+    <t>1400/05/01</t>
+  </si>
+  <si>
+    <t>1401/12/06</t>
+  </si>
+  <si>
+    <t>1400/08/18</t>
+  </si>
+  <si>
+    <t>1399/05/30</t>
   </si>
 </sst>
 </file>
@@ -447,16 +447,16 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>1723</v>
+        <v>38046</v>
       </c>
       <c r="D2">
-        <v>1560</v>
+        <v>14179</v>
       </c>
       <c r="E2">
-        <v>3350000</v>
+        <v>266930</v>
       </c>
       <c r="F2">
-        <v>3350000</v>
+        <v>266930</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -467,16 +467,16 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>371</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1004930</v>
+        <v>74530</v>
       </c>
       <c r="F3">
-        <v>3350000</v>
+        <v>266930</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -487,16 +487,16 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1979</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2162</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>411131</v>
       </c>
       <c r="F4">
-        <v>3350000</v>
+        <v>266930</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -507,16 +507,16 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>2290</v>
+        <v>37347</v>
       </c>
       <c r="D5">
-        <v>2220</v>
+        <v>18750</v>
       </c>
       <c r="E5">
-        <v>10000000</v>
+        <v>80000</v>
       </c>
       <c r="F5">
-        <v>3350000</v>
+        <v>266930</v>
       </c>
     </row>
   </sheetData>
